--- a/dados_graduacao/Tabela2.XX2.xlsx
+++ b/dados_graduacao/Tabela2.XX2.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
-  <si>
-    <t xml:space="preserve">Unidade acadêmica / curso / habilitação</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">Raca</t>
   </si>
@@ -38,9 +35,6 @@
     <t xml:space="preserve">% Total</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aluno não quis declarar cor/raça</t>
   </si>
   <si>
@@ -53,9 +47,6 @@
     <t xml:space="preserve">13.3%</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Amarela</t>
   </si>
   <si>
@@ -68,9 +59,6 @@
     <t xml:space="preserve">1.5%</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Branca</t>
   </si>
   <si>
@@ -83,9 +71,6 @@
     <t xml:space="preserve">36.9%</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Indígena</t>
   </si>
   <si>
@@ -98,9 +83,6 @@
     <t xml:space="preserve">0.5%</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Não dispõe de informação</t>
   </si>
   <si>
@@ -113,9 +95,6 @@
     <t xml:space="preserve">0%</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Parda</t>
   </si>
   <si>
@@ -128,9 +107,6 @@
     <t xml:space="preserve">38.4%</t>
   </si>
   <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Preta</t>
   </si>
   <si>
@@ -141,9 +117,6 @@
   </si>
   <si>
     <t xml:space="preserve">9.4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">50.7%</t>
@@ -506,216 +479,189 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2816</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="n">
+        <v>2483</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="n">
-        <v>2816</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="n">
+        <v>5299</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2483</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5299</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="n">
+        <v>335</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>246</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="n">
+        <v>581</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="n">
-        <v>335</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="n">
-        <v>246</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="n">
-        <v>581</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7192</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7467</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14659</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7192</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7467</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14659</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B5" t="n">
         <v>77</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
         <v>126</v>
       </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="n">
         <v>203</v>
       </c>
-      <c r="H5" t="s">
-        <v>27</v>
+      <c r="G5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B6" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="n">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
-        <v>32</v>
+      <c r="G6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="B7" t="n">
         <v>7766</v>
       </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="n">
         <v>7459</v>
       </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="n">
         <v>15225</v>
       </c>
-      <c r="H7" t="s">
-        <v>37</v>
+      <c r="G7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="n">
+        <v>31</v>
+      </c>
+      <c r="B8" t="n">
         <v>1937</v>
       </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="n">
         <v>1790</v>
       </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="n">
         <v>3727</v>
       </c>
-      <c r="H8" t="s">
-        <v>42</v>
+      <c r="G8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
         <v>20126</v>
       </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="n">
         <v>19573</v>
       </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="n">
         <v>39699</v>
       </c>
-      <c r="H9" t="s">
-        <v>46</v>
+      <c r="G9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/dados_graduacao/Tabela2.XX2.xlsx
+++ b/dados_graduacao/Tabela2.XX2.xlsx
@@ -38,49 +38,49 @@
     <t xml:space="preserve">Aluno não quis declarar cor/raça</t>
   </si>
   <si>
-    <t xml:space="preserve">53.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3%</t>
+    <t xml:space="preserve">53,1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46,9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,3%</t>
   </si>
   <si>
     <t xml:space="preserve">Amarela</t>
   </si>
   <si>
-    <t xml:space="preserve">57.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5%</t>
+    <t xml:space="preserve">57,7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42,3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,5%</t>
   </si>
   <si>
     <t xml:space="preserve">Branca</t>
   </si>
   <si>
-    <t xml:space="preserve">49.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9%</t>
+    <t xml:space="preserve">49,1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50,9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36,9%</t>
   </si>
   <si>
     <t xml:space="preserve">Indígena</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5%</t>
+    <t xml:space="preserve">37,9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62,1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,5%</t>
   </si>
   <si>
     <t xml:space="preserve">Não dispõe de informação</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">49%</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4%</t>
+    <t xml:space="preserve">38,4%</t>
   </si>
   <si>
     <t xml:space="preserve">Preta</t>
@@ -116,13 +116,13 @@
     <t xml:space="preserve">48%</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.3%</t>
+    <t xml:space="preserve">9,4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50,7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49,3%</t>
   </si>
   <si>
     <t xml:space="preserve">100%</t>
